--- a/10450_0270.xlsx
+++ b/10450_0270.xlsx
@@ -9992,1131 +9992,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId395"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1028</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="396" name="Image 396" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId396"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1028</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="397" name="Image 397" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId397"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1028</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="398" name="Image 398" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId398"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1028</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="399" name="Image 399" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId399"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1028</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="400" name="Image 400" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId400"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1041</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="401" name="Image 401" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId401"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1041</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="402" name="Image 402" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId402"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1041</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="403" name="Image 403" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId403"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1041</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="404" name="Image 404" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId404"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1041</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="405" name="Image 405" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId405"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1054</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="406" name="Image 406" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId406"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1054</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="407" name="Image 407" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId407"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1054</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="408" name="Image 408" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId408"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1054</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="409" name="Image 409" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId409"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1054</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="410" name="Image 410" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId410"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1067</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="411" name="Image 411" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId411"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1067</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="412" name="Image 412" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId412"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1067</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="413" name="Image 413" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId413"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1067</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="414" name="Image 414" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId414"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1067</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="415" name="Image 415" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId415"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1080</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="416" name="Image 416" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId416"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1080</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="417" name="Image 417" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId417"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1080</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="418" name="Image 418" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId418"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1080</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="419" name="Image 419" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId419"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1080</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="420" name="Image 420" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId420"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1093</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="421" name="Image 421" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId421"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1093</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="422" name="Image 422" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId422"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1093</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="423" name="Image 423" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId423"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1093</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="424" name="Image 424" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId424"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1093</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="425" name="Image 425" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId425"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="426" name="Image 426" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId426"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="427" name="Image 427" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId427"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="428" name="Image 428" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId428"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="429" name="Image 429" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId429"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="430" name="Image 430" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId430"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="431" name="Image 431" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId431"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="432" name="Image 432" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId432"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="433" name="Image 433" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId433"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="434" name="Image 434" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId434"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="435" name="Image 435" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId435"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="436" name="Image 436" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId436"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="437" name="Image 437" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId437"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="438" name="Image 438" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId438"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="439" name="Image 439" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId439"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="440" name="Image 440" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId440"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11419,7 +10294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12251,14 +11126,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>104.8796409_2.6021909_10450_0270_19</t>
+          <t>104.9138059_2.4936797_10450_0270_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.8796409</v>
+        <v>104.9138059</v>
       </c>
       <c r="C20" t="n">
-        <v>2.6021909</v>
+        <v>2.4936797</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -12267,41 +11142,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/104.8796409,2.6021909_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/104.8796409,2.6021909_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/104.8796409,2.6021909_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/104.8796409,2.6021909_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/104.8796409,2.6021909_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>104.9138059_2.4936797_10450_0270_20</t>
+          <t>105.0049894_2.3278120_10450_0270_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.9138059</v>
+        <v>105.0049894</v>
       </c>
       <c r="C21" t="n">
-        <v>2.4936797</v>
+        <v>2.327812</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -12310,41 +11185,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>105.0049894_2.3278120_10450_0270_21</t>
+          <t>104.8276224_2.1137060_10450_0270_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0049894</v>
+        <v>104.8276224</v>
       </c>
       <c r="C22" t="n">
-        <v>2.327812</v>
+        <v>2.113706</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -12353,41 +11228,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>104.8264588_2.1278729_10450_0270_22</t>
+          <t>104.7359289_2.2720605_10450_0270_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>104.8264588</v>
+        <v>104.7359289</v>
       </c>
       <c r="C23" t="n">
-        <v>2.1278729</v>
+        <v>2.2720605</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -12396,41 +11271,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/104.8264588,2.1278729_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/104.8264588,2.1278729_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/104.8264588,2.1278729_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/104.8264588,2.1278729_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/104.8264588,2.1278729_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>104.8276224_2.1137060_10450_0270_23</t>
+          <t>104.6527125_2.3787405_10450_0270_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>104.8276224</v>
+        <v>104.6527125</v>
       </c>
       <c r="C24" t="n">
-        <v>2.113706</v>
+        <v>2.3787405</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -12439,41 +11314,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>104.8949842_2.0710193_10450_0270_24</t>
+          <t>104.7526675_2.5572238_10450_0270_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.8949842</v>
+        <v>104.7526675</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0710193</v>
+        <v>2.5572238</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -12482,41 +11357,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/104.8949842,2.0710193_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/104.8949842,2.0710193_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/104.8949842,2.0710193_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/104.8949842,2.0710193_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/104.8949842,2.0710193_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>104.7359289_2.2720605_10450_0270_25</t>
+          <t>104.6680893_2.5989051_10450_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.7359289</v>
+        <v>104.6680893</v>
       </c>
       <c r="C26" t="n">
-        <v>2.2720605</v>
+        <v>2.5989051</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -12525,41 +11400,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>104.6527125_2.3787405_10450_0270_26</t>
+          <t>104.7577490_2.9178894_10450_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.6527125</v>
+        <v>104.757749</v>
       </c>
       <c r="C27" t="n">
-        <v>2.3787405</v>
+        <v>2.9178894</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -12568,41 +11443,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7577490,2.9178894_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7577490,2.9178894_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7577490,2.9178894_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7577490,2.9178894_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7577490,2.9178894_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>104.7526675_2.5572238_10450_0270_27</t>
+          <t>104.6649698_2.9700722_10450_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.7526675</v>
+        <v>104.6649698</v>
       </c>
       <c r="C28" t="n">
-        <v>2.5572238</v>
+        <v>2.9700722</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -12611,41 +11486,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>104.6680893_2.5989051_10450_0270_28</t>
+          <t>104.5897110_3.0805801_10450_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.6680893</v>
+        <v>104.589711</v>
       </c>
       <c r="C29" t="n">
-        <v>2.5989051</v>
+        <v>3.0805801</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -12654,41 +11529,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>104.7985703_2.6545468_10450_0270_29</t>
+          <t>104.7505925_3.0120576_10450_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.7985703</v>
+        <v>104.7505925</v>
       </c>
       <c r="C30" t="n">
-        <v>2.6545468</v>
+        <v>3.0120576</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -12697,41 +11572,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/104.7985703,2.6545468_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7505925,3.0120576_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/104.7985703,2.6545468_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7505925,3.0120576_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/104.7985703,2.6545468_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7505925,3.0120576_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/104.7985703,2.6545468_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7505925,3.0120576_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/104.7985703,2.6545468_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7505925,3.0120576_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>104.7577490_2.9178894_10450_0270_30</t>
+          <t>104.5374546_2.5830828_10450_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.757749</v>
+        <v>104.5374546</v>
       </c>
       <c r="C31" t="n">
-        <v>2.9178894</v>
+        <v>2.5830828</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -12740,41 +11615,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.6649698_2.9700722_10450_0270_31</t>
+          <t>104.5523030_2.5830823_10450_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.6649698</v>
+        <v>104.552303</v>
       </c>
       <c r="C32" t="n">
-        <v>2.9700722</v>
+        <v>2.5830823</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -12783,41 +11658,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.7331017_3.1850610_10450_0270_32</t>
+          <t>104.6325467_2.5427428_10450_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.7331017</v>
+        <v>104.6325467</v>
       </c>
       <c r="C33" t="n">
-        <v>3.185061</v>
+        <v>2.5427428</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -12826,41 +11701,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.5526618_3.1630822_10450_0270_33</t>
+          <t>104.4291805_2.5429147_10450_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.5526618</v>
+        <v>104.4291805</v>
       </c>
       <c r="C34" t="n">
-        <v>3.1630822</v>
+        <v>2.5429147</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -12869,41 +11744,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.5763636_3.1599143_10450_0270_34</t>
+          <t>104.5748140_2.3909144_10450_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.5763636</v>
+        <v>104.574814</v>
       </c>
       <c r="C35" t="n">
-        <v>3.1599143</v>
+        <v>2.3909144</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -12912,41 +11787,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.5897110_3.0805801_10450_0270_35</t>
+          <t>104.5933171_2.2244131_10450_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.589711</v>
+        <v>104.5933171</v>
       </c>
       <c r="C36" t="n">
-        <v>3.0805801</v>
+        <v>2.2244131</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -12955,41 +11830,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.7505925_3.0120576_10450_0270_36</t>
+          <t>104.4195314_2.1349141_10450_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.7505925</v>
+        <v>104.4195314</v>
       </c>
       <c r="C37" t="n">
-        <v>3.0120576</v>
+        <v>2.1349141</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -12998,41 +11873,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.5374546_2.5830828_10450_0270_37</t>
+          <t>104.2831144_2.1103974_10450_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.5374546</v>
+        <v>104.2831144</v>
       </c>
       <c r="C38" t="n">
-        <v>2.5830828</v>
+        <v>2.1103974</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -13041,41 +11916,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_38</t>
+          <t>104.3661560_2.2035760_10450_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.552303</v>
+        <v>104.366156</v>
       </c>
       <c r="C39" t="n">
-        <v>2.5830823</v>
+        <v>2.203576</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -13084,41 +11959,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>104.4763935_2.5459165_10450_0270_39</t>
+          <t>104.2541771_2.5352252_10450_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.4763935</v>
+        <v>104.2541771</v>
       </c>
       <c r="C40" t="n">
-        <v>2.5459165</v>
+        <v>2.5352252</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -13127,41 +12002,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_40</t>
+          <t>104.2439976_2.5487231_10450_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.6325467</v>
+        <v>104.2439976</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5427428</v>
+        <v>2.5487231</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -13170,41 +12045,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_41</t>
+          <t>104.2925288_2.6467324_10450_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.4291805</v>
+        <v>104.2925288</v>
       </c>
       <c r="C42" t="n">
-        <v>2.5429147</v>
+        <v>2.6467324</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -13213,41 +12088,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>104.5482924_2.4185824_10450_0270_42</t>
+          <t>104.2598251_2.6575597_10450_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.5482924</v>
+        <v>104.2598251</v>
       </c>
       <c r="C43" t="n">
-        <v>2.4185824</v>
+        <v>2.6575597</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -13256,41 +12131,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_43</t>
+          <t>104.1995735_2.6041463_10450_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.574814</v>
+        <v>104.1995735</v>
       </c>
       <c r="C44" t="n">
-        <v>2.3909144</v>
+        <v>2.6041463</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -13299,41 +12174,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_44</t>
+          <t>104.4129518_2.7224469_10450_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.5933171</v>
+        <v>104.4129518</v>
       </c>
       <c r="C45" t="n">
-        <v>2.2244131</v>
+        <v>2.7224469</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -13342,41 +12217,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_45</t>
+          <t>104.3504841_2.6990409_10450_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.4195314</v>
+        <v>104.3504841</v>
       </c>
       <c r="C46" t="n">
-        <v>2.1349141</v>
+        <v>2.6990409</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -13385,41 +12260,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_46</t>
+          <t>104.4224552_2.8363809_10450_0270_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.2831144</v>
+        <v>104.4224552</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1103974</v>
+        <v>2.8363809</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -13428,41 +12303,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_47</t>
+          <t>104.2462977_2.8789570_10450_0270_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104.366156</v>
+        <v>104.2462977</v>
       </c>
       <c r="C48" t="n">
-        <v>2.203576</v>
+        <v>2.878957</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -13471,41 +12346,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_48</t>
+          <t>104.3419900_3.0943398_10450_0270_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>104.2541771</v>
+        <v>104.34199</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5352252</v>
+        <v>3.0943398</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -13514,41 +12389,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_49</t>
+          <t>104.3660544_3.1262093_10450_0270_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>104.2439976</v>
+        <v>104.3660544</v>
       </c>
       <c r="C50" t="n">
-        <v>2.5487231</v>
+        <v>3.1262093</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -13557,41 +12432,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3660544,3.1262093_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3660544,3.1262093_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3660544,3.1262093_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3660544,3.1262093_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3660544,3.1262093_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_50</t>
+          <t>104.1355625_2.8653622_10450_0270_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>104.2925288</v>
+        <v>104.1355625</v>
       </c>
       <c r="C51" t="n">
-        <v>2.6467324</v>
+        <v>2.8653622</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -13600,41 +12475,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_51</t>
+          <t>104.0893561_2.4177808_10450_0270_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>104.2598251</v>
+        <v>104.0893561</v>
       </c>
       <c r="C52" t="n">
-        <v>2.6575597</v>
+        <v>2.4177808</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -13643,41 +12518,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_52</t>
+          <t>104.0849554_2.4085793_10450_0270_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>104.1995735</v>
+        <v>104.0849554</v>
       </c>
       <c r="C53" t="n">
-        <v>2.6041463</v>
+        <v>2.4085793</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -13686,41 +12561,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_53</t>
+          <t>104.1313339_2.1728276_10450_0270_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.4129518</v>
+        <v>104.1313339</v>
       </c>
       <c r="C54" t="n">
-        <v>2.7224469</v>
+        <v>2.1728276</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -13729,41 +12604,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_54</t>
+          <t>104.2174500_2.0671839_10450_0270_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.3504841</v>
+        <v>104.21745</v>
       </c>
       <c r="C55" t="n">
-        <v>2.6990409</v>
+        <v>2.0671839</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -13772,41 +12647,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_55</t>
+          <t>104.2294530_2.0855867_10450_0270_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>104.4224552</v>
+        <v>104.229453</v>
       </c>
       <c r="C56" t="n">
-        <v>2.8363809</v>
+        <v>2.0855867</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -13815,41 +12690,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_56</t>
+          <t>104.1060238_2.8713863_10450_0270_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>104.2462977</v>
+        <v>104.1060238</v>
       </c>
       <c r="C57" t="n">
-        <v>2.878957</v>
+        <v>2.8713863</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -13858,41 +12733,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_57</t>
+          <t>104.2463204_2.4506570_10450_0270_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>104.34199</v>
+        <v>104.2463204</v>
       </c>
       <c r="C58" t="n">
-        <v>3.0943398</v>
+        <v>2.450657</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -13901,41 +12776,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>104.3660544_3.1262093_10450_0270_58</t>
+          <t>104.3425297_2.4074065_10450_0270_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>104.3660544</v>
+        <v>104.3425297</v>
       </c>
       <c r="C59" t="n">
-        <v>3.1262093</v>
+        <v>2.4074065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -13944,41 +12819,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_59</t>
+          <t>104.5339468_2.4300828_10450_0270_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>104.1355625</v>
+        <v>104.5339468</v>
       </c>
       <c r="C60" t="n">
-        <v>2.8653622</v>
+        <v>2.4300828</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -13987,41 +12862,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_60</t>
+          <t>104.7057183_2.1477327_10450_0270_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>104.0893561</v>
+        <v>104.7057183</v>
       </c>
       <c r="C61" t="n">
-        <v>2.4177808</v>
+        <v>2.1477327</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -14030,41 +12905,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_61</t>
+          <t>104.1012388_2.4006847_10450_0270_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.0849554</v>
+        <v>104.1012388</v>
       </c>
       <c r="C62" t="n">
-        <v>2.4085793</v>
+        <v>2.4006847</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -14073,41 +12948,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_62</t>
+          <t>104.5115936_2.4249167_10450_0270_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.1313339</v>
+        <v>104.5115936</v>
       </c>
       <c r="C63" t="n">
-        <v>2.1728276</v>
+        <v>2.4249167</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -14116,41 +12991,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_63</t>
+          <t>104.6106814_2.4279117_10450_0270_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>104.21745</v>
+        <v>104.6106814</v>
       </c>
       <c r="C64" t="n">
-        <v>2.0671839</v>
+        <v>2.4279117</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -14159,41 +13034,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_64</t>
+          <t>104.1662126_2.0932043_10450_0270_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>104.229453</v>
+        <v>104.1662126</v>
       </c>
       <c r="C65" t="n">
-        <v>2.0855867</v>
+        <v>2.0932043</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -14202,41 +13077,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_65</t>
+          <t>104.1877908_2.4892100_10450_0270_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>104.1060238</v>
+        <v>104.1877908</v>
       </c>
       <c r="C66" t="n">
-        <v>2.8713863</v>
+        <v>2.48921</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -14245,41 +13120,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_66</t>
+          <t>104.0308850_2.7283264_10450_0270_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>104.2463204</v>
+        <v>104.030885</v>
       </c>
       <c r="C67" t="n">
-        <v>2.450657</v>
+        <v>2.7283264</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -14288,41 +13163,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_67</t>
+          <t>104.2366162_2.7373882_10450_0270_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>104.3425297</v>
+        <v>104.2366162</v>
       </c>
       <c r="C68" t="n">
-        <v>2.4074065</v>
+        <v>2.7373882</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -14331,41 +13206,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_68</t>
+          <t>104.4990826_2.3614167_10450_0270_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.5339468</v>
+        <v>104.4990826</v>
       </c>
       <c r="C69" t="n">
-        <v>2.4300828</v>
+        <v>2.3614167</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -14374,41 +13249,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_69</t>
+          <t>104.6071806_2.4532453_10450_0270_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>104.7057183</v>
+        <v>104.6071806</v>
       </c>
       <c r="C70" t="n">
-        <v>2.1477327</v>
+        <v>2.4532453</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -14417,41 +13292,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_70</t>
+          <t>104.3720765_2.9994100_10450_0270_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>104.1012388</v>
+        <v>104.3720765</v>
       </c>
       <c r="C71" t="n">
-        <v>2.4006847</v>
+        <v>2.99941</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -14460,41 +13335,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_71</t>
+          <t>103.9867223_2.6001419_10450_0270_71</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>104.5115936</v>
+        <v>103.9867223</v>
       </c>
       <c r="C72" t="n">
-        <v>2.4249167</v>
+        <v>2.6001419</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -14503,41 +13378,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_72</t>
+          <t>104.1206634_2.1618576_10450_0270_72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>104.6106814</v>
+        <v>104.1206634</v>
       </c>
       <c r="C73" t="n">
-        <v>2.4279117</v>
+        <v>2.1618576</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -14546,41 +13421,41 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_73</t>
+          <t>103.9507189_2.1566261_10450_0270_73</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>104.1662126</v>
+        <v>103.9507189</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0932043</v>
+        <v>2.1566261</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -14589,41 +13464,41 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9507189,2.1566261_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9507189,2.1566261_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9507189,2.1566261_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9507189,2.1566261_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9507189,2.1566261_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_74</t>
+          <t>104.7858289_3.1040498_10450_0270_74</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>104.1877908</v>
+        <v>104.7858289</v>
       </c>
       <c r="C75" t="n">
-        <v>2.48921</v>
+        <v>3.1040498</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -14632,41 +13507,41 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_75</t>
+          <t>104.8285499_3.0770391_10450_0270_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>104.030885</v>
+        <v>104.8285499</v>
       </c>
       <c r="C76" t="n">
-        <v>2.7283264</v>
+        <v>3.0770391</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -14675,41 +13550,41 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.8285499,3.0770391_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.8285499,3.0770391_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.8285499,3.0770391_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.8285499,3.0770391_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.8285499,3.0770391_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_76</t>
+          <t>104.6455414_2.3924080_10450_0270_76</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104.2366162</v>
+        <v>104.6455414</v>
       </c>
       <c r="C77" t="n">
-        <v>2.7373882</v>
+        <v>2.392408</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -14718,41 +13593,41 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_77</t>
+          <t>104.6177335_2.9010777_10450_0270_77</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>104.4990826</v>
+        <v>104.6177335</v>
       </c>
       <c r="C78" t="n">
-        <v>2.3614167</v>
+        <v>2.9010777</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -14761,41 +13636,41 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_78</t>
+          <t>104.9874812_2.7583191_10450_0270_78</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>104.6071806</v>
+        <v>104.9874812</v>
       </c>
       <c r="C79" t="n">
-        <v>2.4532453</v>
+        <v>2.7583191</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -14804,41 +13679,41 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_79</t>
+          <t>104.7870153_2.4742162_10450_0270_79</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>104.3720765</v>
+        <v>104.7870153</v>
       </c>
       <c r="C80" t="n">
-        <v>2.99941</v>
+        <v>2.4742162</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -14847,412 +13722,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
-        <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>103.9867223_2.6001419_10450_0270_80</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>103.9867223</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.6001419</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>104.1206634_2.1618576_10450_0270_81</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>104.1206634</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.1618576</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>103.9507189_2.1566261_10450_0270_82</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>103.9507189</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.1566261</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>104.7858289_3.1040498_10450_0270_83</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>104.7858289</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.1040498</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>104.8285499_3.0770391_10450_0270_84</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>104.8285499</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.0770391</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>104.6455414_2.3924080_10450_0270_85</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>104.6455414</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.392408</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>104.6177335_2.9010777_10450_0270_86</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>104.6177335</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.9010777</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_87</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>104.9874812</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.7583191</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_88</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>104.7870153</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2.4742162</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
         <is>
           <t>cuts/104.7870153,2.4742162_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -15269,7 +13757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1133"/>
+  <dimension ref="A1:R1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15450,490 +13938,427 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>104.8796409_2.6021909_10450_0270_19</t>
+          <t>104.9138059_2.4936797_10450_0270_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>104.9138059_2.4936797_10450_0270_20</t>
+          <t>105.0049894_2.3278120_10450_0270_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>105.0049894_2.3278120_10450_0270_21</t>
+          <t>104.8276224_2.1137060_10450_0270_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>104.8264588_2.1278729_10450_0270_22</t>
+          <t>104.7359289_2.2720605_10450_0270_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>104.8276224_2.1137060_10450_0270_23</t>
+          <t>104.6527125_2.3787405_10450_0270_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>104.8949842_2.0710193_10450_0270_24</t>
+          <t>104.7526675_2.5572238_10450_0270_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>104.7359289_2.2720605_10450_0270_25</t>
+          <t>104.6680893_2.5989051_10450_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>104.6527125_2.3787405_10450_0270_26</t>
+          <t>104.7577490_2.9178894_10450_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>104.7526675_2.5572238_10450_0270_27</t>
+          <t>104.6649698_2.9700722_10450_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>104.6680893_2.5989051_10450_0270_28</t>
+          <t>104.5897110_3.0805801_10450_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>104.7985703_2.6545468_10450_0270_29</t>
+          <t>104.7505925_3.0120576_10450_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>104.7577490_2.9178894_10450_0270_30</t>
+          <t>104.5374546_2.5830828_10450_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>104.6649698_2.9700722_10450_0270_31</t>
+          <t>104.5523030_2.5830823_10450_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>104.7331017_3.1850610_10450_0270_32</t>
+          <t>104.6325467_2.5427428_10450_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>104.5526618_3.1630822_10450_0270_33</t>
+          <t>104.4291805_2.5429147_10450_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>104.5763636_3.1599143_10450_0270_34</t>
+          <t>104.5748140_2.3909144_10450_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>104.5897110_3.0805801_10450_0270_35</t>
+          <t>104.5933171_2.2244131_10450_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>104.7505925_3.0120576_10450_0270_36</t>
+          <t>104.4195314_2.1349141_10450_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>104.5374546_2.5830828_10450_0270_37</t>
+          <t>104.2831144_2.1103974_10450_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_38</t>
+          <t>104.3661560_2.2035760_10450_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>104.4763935_2.5459165_10450_0270_39</t>
+          <t>104.2541771_2.5352252_10450_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_40</t>
+          <t>104.2439976_2.5487231_10450_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_41</t>
+          <t>104.2925288_2.6467324_10450_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>104.5482924_2.4185824_10450_0270_42</t>
+          <t>104.2598251_2.6575597_10450_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_43</t>
+          <t>104.1995735_2.6041463_10450_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_44</t>
+          <t>104.4129518_2.7224469_10450_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_45</t>
+          <t>104.3504841_2.6990409_10450_0270_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_46</t>
+          <t>104.4224552_2.8363809_10450_0270_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_47</t>
+          <t>104.2462977_2.8789570_10450_0270_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_48</t>
+          <t>104.3419900_3.0943398_10450_0270_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_49</t>
+          <t>104.3660544_3.1262093_10450_0270_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_50</t>
+          <t>104.1355625_2.8653622_10450_0270_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_51</t>
+          <t>104.0893561_2.4177808_10450_0270_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_52</t>
+          <t>104.0849554_2.4085793_10450_0270_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_53</t>
+          <t>104.1313339_2.1728276_10450_0270_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_54</t>
+          <t>104.2174500_2.0671839_10450_0270_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_55</t>
+          <t>104.2294530_2.0855867_10450_0270_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_56</t>
+          <t>104.1060238_2.8713863_10450_0270_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_57</t>
+          <t>104.2463204_2.4506570_10450_0270_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>104.3660544_3.1262093_10450_0270_58</t>
+          <t>104.3425297_2.4074065_10450_0270_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_59</t>
+          <t>104.5339468_2.4300828_10450_0270_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_60</t>
+          <t>104.7057183_2.1477327_10450_0270_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_61</t>
+          <t>104.1012388_2.4006847_10450_0270_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_62</t>
+          <t>104.5115936_2.4249167_10450_0270_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_63</t>
+          <t>104.6106814_2.4279117_10450_0270_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_64</t>
+          <t>104.1662126_2.0932043_10450_0270_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_65</t>
+          <t>104.1877908_2.4892100_10450_0270_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_66</t>
+          <t>104.0308850_2.7283264_10450_0270_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_67</t>
+          <t>104.2366162_2.7373882_10450_0270_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_68</t>
+          <t>104.4990826_2.3614167_10450_0270_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_69</t>
+          <t>104.6071806_2.4532453_10450_0270_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_70</t>
+          <t>104.3720765_2.9994100_10450_0270_70</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_71</t>
+          <t>103.9867223_2.6001419_10450_0270_71</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_72</t>
+          <t>104.1206634_2.1618576_10450_0270_72</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_73</t>
+          <t>103.9507189_2.1566261_10450_0270_73</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_74</t>
+          <t>104.7858289_3.1040498_10450_0270_74</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_75</t>
+          <t>104.8285499_3.0770391_10450_0270_75</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_76</t>
+          <t>104.6455414_2.3924080_10450_0270_76</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_77</t>
+          <t>104.6177335_2.9010777_10450_0270_77</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_78</t>
+          <t>104.9874812_2.7583191_10450_0270_78</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_79</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>103.9867223_2.6001419_10450_0270_80</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>104.1206634_2.1618576_10450_0270_81</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>103.9507189_2.1566261_10450_0270_82</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>104.7858289_3.1040498_10450_0270_83</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>104.8285499_3.0770391_10450_0270_84</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>104.6455414_2.3924080_10450_0270_85</t>
-        </is>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>104.6177335_2.9010777_10450_0270_86</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_87</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_88</t>
+          <t>104.7870153_2.4742162_10450_0270_79</t>
         </is>
       </c>
     </row>

--- a/10450_0270.xlsx
+++ b/10450_0270.xlsx
@@ -8867,1131 +8867,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId350"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>911</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="351" name="Image 351" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId351"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>911</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="352" name="Image 352" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId352"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>911</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="353" name="Image 353" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId353"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>911</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="354" name="Image 354" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId354"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>911</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="355" name="Image 355" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId355"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>924</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="356" name="Image 356" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId356"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>924</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="357" name="Image 357" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId357"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>924</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="358" name="Image 358" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId358"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>924</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="359" name="Image 359" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId359"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>924</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="360" name="Image 360" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId360"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>937</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="361" name="Image 361" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId361"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>937</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="362" name="Image 362" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId362"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>937</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="363" name="Image 363" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId363"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>937</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="364" name="Image 364" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId364"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>937</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="365" name="Image 365" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId365"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="366" name="Image 366" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId366"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="367" name="Image 367" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId367"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="368" name="Image 368" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId368"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="369" name="Image 369" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId369"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>950</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="370" name="Image 370" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId370"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="371" name="Image 371" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId371"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="372" name="Image 372" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId372"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="373" name="Image 373" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId373"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="374" name="Image 374" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId374"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>963</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="375" name="Image 375" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId375"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="376" name="Image 376" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId376"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="377" name="Image 377" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId377"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="378" name="Image 378" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId378"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="379" name="Image 379" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId379"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>976</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="380" name="Image 380" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId380"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="381" name="Image 381" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId381"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="382" name="Image 382" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId382"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="383" name="Image 383" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId383"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="384" name="Image 384" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId384"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>989</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="385" name="Image 385" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId385"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1002</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="386" name="Image 386" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId386"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1002</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="387" name="Image 387" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1002</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="388" name="Image 388" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId388"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1002</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="389" name="Image 389" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId389"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1002</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="390" name="Image 390" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId390"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1015</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="391" name="Image 391" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId391"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1015</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="392" name="Image 392" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId392"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1015</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="393" name="Image 393" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId393"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1015</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="394" name="Image 394" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId394"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1015</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="395" name="Image 395" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId395"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10294,7 +9169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10739,14 +9614,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>104.7331017_3.1850610_10450_0270_10</t>
+          <t>104.5523031_2.5830823_10450_0270_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.7331017</v>
+        <v>104.5523031</v>
       </c>
       <c r="C11" t="n">
-        <v>3.185061</v>
+        <v>2.5830823</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -10755,41 +9630,41 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5523031,2.5830823_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5523031,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5523031,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5523031,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cuts/104.7331017,3.1850610_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5523031,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>104.5526618_3.1630822_10450_0270_11</t>
+          <t>104.4763935_2.5459165_10450_0270_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104.5526618</v>
+        <v>104.4763935</v>
       </c>
       <c r="C12" t="n">
-        <v>3.1630822</v>
+        <v>2.5459165</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -10798,41 +9673,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4763935,2.5459165_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4763935,2.5459165_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4763935,2.5459165_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4763935,2.5459165_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/104.5526618,3.1630822_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4763935,2.5459165_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>104.5763636_3.1599143_10450_0270_12</t>
+          <t>104.4291805_2.5429146_10450_0270_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.5763636</v>
+        <v>104.4291805</v>
       </c>
       <c r="C13" t="n">
-        <v>3.1599143</v>
+        <v>2.5429146</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -10841,41 +9716,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4291805,2.5429146_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429146_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429146_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429146_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/104.5763636,3.1599143_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429146_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>104.5523031_2.5830823_10450_0270_13</t>
+          <t>104.5482924_2.4185824_10450_0270_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104.5523031</v>
+        <v>104.5482924</v>
       </c>
       <c r="C14" t="n">
-        <v>2.5830823</v>
+        <v>2.4185824</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -10884,41 +9759,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/104.5523031,2.5830823_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5482924,2.4185824_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/104.5523031,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5482924,2.4185824_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/104.5523031,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5482924,2.4185824_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/104.5523031,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5482924,2.4185824_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/104.5523031,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5482924,2.4185824_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>104.4763935_2.5459165_10450_0270_14</t>
+          <t>104.5124304_2.6905833_10450_0270_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.4763935</v>
+        <v>104.5124304</v>
       </c>
       <c r="C15" t="n">
-        <v>2.5459165</v>
+        <v>2.6905833</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -10927,41 +9802,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5124304,2.6905833_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5124304,2.6905833_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5124304,2.6905833_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5124304,2.6905833_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/104.4763935,2.5459165_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5124304,2.6905833_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429146_10450_0270_15</t>
+          <t>104.9138059_2.4936797_10450_0270_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.4291805</v>
+        <v>104.9138059</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5429146</v>
+        <v>2.4936797</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -10970,41 +9845,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429146_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429146_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429146_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429146_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429146_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9138059,2.4936797_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>104.5482924_2.4185824_10450_0270_16</t>
+          <t>105.0049894_2.3278120_10450_0270_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>104.5482924</v>
+        <v>105.0049894</v>
       </c>
       <c r="C17" t="n">
-        <v>2.4185824</v>
+        <v>2.327812</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -11013,41 +9888,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/104.5482924,2.4185824_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0049894,2.3278120_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>104.5124304_2.6905833_10450_0270_17</t>
+          <t>104.8276224_2.1137060_10450_0270_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.5124304</v>
+        <v>104.8276224</v>
       </c>
       <c r="C18" t="n">
-        <v>2.6905833</v>
+        <v>2.113706</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -11056,41 +9931,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/104.5124304,2.6905833_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/104.5124304,2.6905833_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/104.5124304,2.6905833_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/104.5124304,2.6905833_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/104.5124304,2.6905833_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.8276224,2.1137060_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>105.0090677_2.9053103_10450_0270_18</t>
+          <t>104.7359289_2.2720605_10450_0270_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0090677</v>
+        <v>104.7359289</v>
       </c>
       <c r="C19" t="n">
-        <v>2.9053103</v>
+        <v>2.2720605</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -11099,41 +9974,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/105.0090677,2.9053103_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/105.0090677,2.9053103_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/105.0090677,2.9053103_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/105.0090677,2.9053103_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/105.0090677,2.9053103_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7359289,2.2720605_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>104.9138059_2.4936797_10450_0270_19</t>
+          <t>104.6527125_2.3787405_10450_0270_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.9138059</v>
+        <v>104.6527125</v>
       </c>
       <c r="C20" t="n">
-        <v>2.4936797</v>
+        <v>2.3787405</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -11142,41 +10017,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/104.9138059,2.4936797_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6527125,2.3787405_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>105.0049894_2.3278120_10450_0270_20</t>
+          <t>104.7526675_2.5572238_10450_0270_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.0049894</v>
+        <v>104.7526675</v>
       </c>
       <c r="C21" t="n">
-        <v>2.327812</v>
+        <v>2.5572238</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -11185,41 +10060,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/105.0049894,2.3278120_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7526675,2.5572238_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>104.8276224_2.1137060_10450_0270_21</t>
+          <t>104.6680893_2.5989051_10450_0270_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.8276224</v>
+        <v>104.6680893</v>
       </c>
       <c r="C22" t="n">
-        <v>2.113706</v>
+        <v>2.5989051</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -11228,41 +10103,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/104.8276224,2.1137060_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6680893,2.5989051_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>104.7359289_2.2720605_10450_0270_22</t>
+          <t>104.6649698_2.9700722_10450_0270_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>104.7359289</v>
+        <v>104.6649698</v>
       </c>
       <c r="C23" t="n">
-        <v>2.2720605</v>
+        <v>2.9700722</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -11271,41 +10146,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/104.7359289,2.2720605_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6649698,2.9700722_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>104.6527125_2.3787405_10450_0270_23</t>
+          <t>104.5897110_3.0805801_10450_0270_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>104.6527125</v>
+        <v>104.589711</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3787405</v>
+        <v>3.0805801</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -11314,41 +10189,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/104.6527125,2.3787405_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5897110,3.0805801_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>104.7526675_2.5572238_10450_0270_24</t>
+          <t>104.5374546_2.5830828_10450_0270_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.7526675</v>
+        <v>104.5374546</v>
       </c>
       <c r="C25" t="n">
-        <v>2.5572238</v>
+        <v>2.5830828</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -11357,41 +10232,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/104.7526675,2.5572238_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5374546,2.5830828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>104.6680893_2.5989051_10450_0270_25</t>
+          <t>104.5523030_2.5830823_10450_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.6680893</v>
+        <v>104.552303</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5989051</v>
+        <v>2.5830823</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -11400,41 +10275,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/104.6680893,2.5989051_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5523030,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>104.7577490_2.9178894_10450_0270_26</t>
+          <t>104.6325467_2.5427428_10450_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.757749</v>
+        <v>104.6325467</v>
       </c>
       <c r="C27" t="n">
-        <v>2.9178894</v>
+        <v>2.5427428</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -11443,41 +10318,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/104.7577490,2.9178894_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>104.6649698_2.9700722_10450_0270_27</t>
+          <t>104.4291805_2.5429147_10450_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.6649698</v>
+        <v>104.4291805</v>
       </c>
       <c r="C28" t="n">
-        <v>2.9700722</v>
+        <v>2.5429147</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -11486,41 +10361,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/104.6649698,2.9700722_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4291805,2.5429147_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>104.5897110_3.0805801_10450_0270_28</t>
+          <t>104.5748140_2.3909144_10450_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.589711</v>
+        <v>104.574814</v>
       </c>
       <c r="C29" t="n">
-        <v>3.0805801</v>
+        <v>2.3909144</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -11529,41 +10404,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/104.5897110,3.0805801_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>104.7505925_3.0120576_10450_0270_29</t>
+          <t>104.5933171_2.2244131_10450_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.7505925</v>
+        <v>104.5933171</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0120576</v>
+        <v>2.2244131</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -11572,41 +10447,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/104.7505925,3.0120576_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>104.5374546_2.5830828_10450_0270_30</t>
+          <t>104.4195314_2.1349141_10450_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.5374546</v>
+        <v>104.4195314</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5830828</v>
+        <v>2.1349141</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -11615,41 +10490,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/104.5374546,2.5830828_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_31</t>
+          <t>104.2831144_2.1103974_10450_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.552303</v>
+        <v>104.2831144</v>
       </c>
       <c r="C32" t="n">
-        <v>2.5830823</v>
+        <v>2.1103974</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -11658,41 +10533,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_32</t>
+          <t>104.3661560_2.2035760_10450_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.6325467</v>
+        <v>104.366156</v>
       </c>
       <c r="C33" t="n">
-        <v>2.5427428</v>
+        <v>2.203576</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -11701,41 +10576,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_33</t>
+          <t>104.2541771_2.5352252_10450_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.4291805</v>
+        <v>104.2541771</v>
       </c>
       <c r="C34" t="n">
-        <v>2.5429147</v>
+        <v>2.5352252</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -11744,41 +10619,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_34</t>
+          <t>104.2439976_2.5487231_10450_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.574814</v>
+        <v>104.2439976</v>
       </c>
       <c r="C35" t="n">
-        <v>2.3909144</v>
+        <v>2.5487231</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -11787,41 +10662,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_35</t>
+          <t>104.2925288_2.6467324_10450_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.5933171</v>
+        <v>104.2925288</v>
       </c>
       <c r="C36" t="n">
-        <v>2.2244131</v>
+        <v>2.6467324</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -11830,41 +10705,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_36</t>
+          <t>104.2598251_2.6575597_10450_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.4195314</v>
+        <v>104.2598251</v>
       </c>
       <c r="C37" t="n">
-        <v>2.1349141</v>
+        <v>2.6575597</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -11873,41 +10748,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_37</t>
+          <t>104.1995735_2.6041463_10450_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.2831144</v>
+        <v>104.1995735</v>
       </c>
       <c r="C38" t="n">
-        <v>2.1103974</v>
+        <v>2.6041463</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -11916,41 +10791,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_38</t>
+          <t>104.4129518_2.7224469_10450_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.366156</v>
+        <v>104.4129518</v>
       </c>
       <c r="C39" t="n">
-        <v>2.203576</v>
+        <v>2.7224469</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -11959,41 +10834,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_39</t>
+          <t>104.3504841_2.6990409_10450_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.2541771</v>
+        <v>104.3504841</v>
       </c>
       <c r="C40" t="n">
-        <v>2.5352252</v>
+        <v>2.6990409</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -12002,41 +10877,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_40</t>
+          <t>104.4224552_2.8363809_10450_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.2439976</v>
+        <v>104.4224552</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5487231</v>
+        <v>2.8363809</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -12045,41 +10920,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_41</t>
+          <t>104.2462977_2.8789570_10450_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.2925288</v>
+        <v>104.2462977</v>
       </c>
       <c r="C42" t="n">
-        <v>2.6467324</v>
+        <v>2.878957</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -12088,41 +10963,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_42</t>
+          <t>104.3419900_3.0943398_10450_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.2598251</v>
+        <v>104.34199</v>
       </c>
       <c r="C43" t="n">
-        <v>2.6575597</v>
+        <v>3.0943398</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -12131,41 +11006,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_43</t>
+          <t>104.1355625_2.8653622_10450_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.1995735</v>
+        <v>104.1355625</v>
       </c>
       <c r="C44" t="n">
-        <v>2.6041463</v>
+        <v>2.8653622</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -12174,41 +11049,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_44</t>
+          <t>104.0893561_2.4177808_10450_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.4129518</v>
+        <v>104.0893561</v>
       </c>
       <c r="C45" t="n">
-        <v>2.7224469</v>
+        <v>2.4177808</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -12217,41 +11092,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_45</t>
+          <t>104.0849554_2.4085793_10450_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.3504841</v>
+        <v>104.0849554</v>
       </c>
       <c r="C46" t="n">
-        <v>2.6990409</v>
+        <v>2.4085793</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -12260,41 +11135,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_46</t>
+          <t>104.1313339_2.1728276_10450_0270_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.4224552</v>
+        <v>104.1313339</v>
       </c>
       <c r="C47" t="n">
-        <v>2.8363809</v>
+        <v>2.1728276</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -12303,41 +11178,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_47</t>
+          <t>104.2174500_2.0671839_10450_0270_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104.2462977</v>
+        <v>104.21745</v>
       </c>
       <c r="C48" t="n">
-        <v>2.878957</v>
+        <v>2.0671839</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -12346,41 +11221,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_48</t>
+          <t>104.2294530_2.0855867_10450_0270_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>104.34199</v>
+        <v>104.229453</v>
       </c>
       <c r="C49" t="n">
-        <v>3.0943398</v>
+        <v>2.0855867</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -12389,41 +11264,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>104.3660544_3.1262093_10450_0270_49</t>
+          <t>104.1060238_2.8713863_10450_0270_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>104.3660544</v>
+        <v>104.1060238</v>
       </c>
       <c r="C50" t="n">
-        <v>3.1262093</v>
+        <v>2.8713863</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -12432,41 +11307,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/104.3660544,3.1262093_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_50</t>
+          <t>104.2463204_2.4506570_10450_0270_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>104.1355625</v>
+        <v>104.2463204</v>
       </c>
       <c r="C51" t="n">
-        <v>2.8653622</v>
+        <v>2.450657</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -12475,41 +11350,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_51</t>
+          <t>104.3425297_2.4074065_10450_0270_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>104.0893561</v>
+        <v>104.3425297</v>
       </c>
       <c r="C52" t="n">
-        <v>2.4177808</v>
+        <v>2.4074065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -12518,41 +11393,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_52</t>
+          <t>104.5339468_2.4300828_10450_0270_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>104.0849554</v>
+        <v>104.5339468</v>
       </c>
       <c r="C53" t="n">
-        <v>2.4085793</v>
+        <v>2.4300828</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -12561,41 +11436,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_53</t>
+          <t>104.7057183_2.1477327_10450_0270_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.1313339</v>
+        <v>104.7057183</v>
       </c>
       <c r="C54" t="n">
-        <v>2.1728276</v>
+        <v>2.1477327</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -12604,41 +11479,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_54</t>
+          <t>104.1012388_2.4006847_10450_0270_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.21745</v>
+        <v>104.1012388</v>
       </c>
       <c r="C55" t="n">
-        <v>2.0671839</v>
+        <v>2.4006847</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -12647,41 +11522,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_55</t>
+          <t>104.5115936_2.4249167_10450_0270_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>104.229453</v>
+        <v>104.5115936</v>
       </c>
       <c r="C56" t="n">
-        <v>2.0855867</v>
+        <v>2.4249167</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -12690,41 +11565,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_56</t>
+          <t>104.6106814_2.4279117_10450_0270_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>104.1060238</v>
+        <v>104.6106814</v>
       </c>
       <c r="C57" t="n">
-        <v>2.8713863</v>
+        <v>2.4279117</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -12733,41 +11608,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_57</t>
+          <t>104.1662126_2.0932043_10450_0270_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>104.2463204</v>
+        <v>104.1662126</v>
       </c>
       <c r="C58" t="n">
-        <v>2.450657</v>
+        <v>2.0932043</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -12776,41 +11651,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_58</t>
+          <t>104.1877908_2.4892100_10450_0270_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>104.3425297</v>
+        <v>104.1877908</v>
       </c>
       <c r="C59" t="n">
-        <v>2.4074065</v>
+        <v>2.48921</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -12819,41 +11694,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_59</t>
+          <t>104.0308850_2.7283264_10450_0270_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>104.5339468</v>
+        <v>104.030885</v>
       </c>
       <c r="C60" t="n">
-        <v>2.4300828</v>
+        <v>2.7283264</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -12862,41 +11737,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_60</t>
+          <t>104.2366162_2.7373882_10450_0270_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>104.7057183</v>
+        <v>104.2366162</v>
       </c>
       <c r="C61" t="n">
-        <v>2.1477327</v>
+        <v>2.7373882</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -12905,41 +11780,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_61</t>
+          <t>104.4990826_2.3614167_10450_0270_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.1012388</v>
+        <v>104.4990826</v>
       </c>
       <c r="C62" t="n">
-        <v>2.4006847</v>
+        <v>2.3614167</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -12948,41 +11823,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_62</t>
+          <t>104.6071806_2.4532453_10450_0270_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.5115936</v>
+        <v>104.6071806</v>
       </c>
       <c r="C63" t="n">
-        <v>2.4249167</v>
+        <v>2.4532453</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -12991,41 +11866,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_63</t>
+          <t>104.3720765_2.9994100_10450_0270_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>104.6106814</v>
+        <v>104.3720765</v>
       </c>
       <c r="C64" t="n">
-        <v>2.4279117</v>
+        <v>2.99941</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -13034,41 +11909,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_64</t>
+          <t>103.9867223_2.6001419_10450_0270_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>104.1662126</v>
+        <v>103.9867223</v>
       </c>
       <c r="C65" t="n">
-        <v>2.0932043</v>
+        <v>2.6001419</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -13077,41 +11952,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_65</t>
+          <t>104.1206634_2.1618576_10450_0270_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>104.1877908</v>
+        <v>104.1206634</v>
       </c>
       <c r="C66" t="n">
-        <v>2.48921</v>
+        <v>2.1618576</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -13120,41 +11995,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_66</t>
+          <t>104.7858289_3.1040498_10450_0270_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>104.030885</v>
+        <v>104.7858289</v>
       </c>
       <c r="C67" t="n">
-        <v>2.7283264</v>
+        <v>3.1040498</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -13163,41 +12038,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_67</t>
+          <t>104.6455414_2.3924080_10450_0270_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>104.2366162</v>
+        <v>104.6455414</v>
       </c>
       <c r="C68" t="n">
-        <v>2.7373882</v>
+        <v>2.392408</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -13206,41 +12081,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_68</t>
+          <t>104.6177335_2.9010777_10450_0270_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.4990826</v>
+        <v>104.6177335</v>
       </c>
       <c r="C69" t="n">
-        <v>2.3614167</v>
+        <v>2.9010777</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -13249,41 +12124,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_69</t>
+          <t>104.9874812_2.7583191_10450_0270_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>104.6071806</v>
+        <v>104.9874812</v>
       </c>
       <c r="C70" t="n">
-        <v>2.4532453</v>
+        <v>2.7583191</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -13292,41 +12167,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_70</t>
+          <t>104.7870153_2.4742162_10450_0270_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>104.3720765</v>
+        <v>104.7870153</v>
       </c>
       <c r="C71" t="n">
-        <v>2.99941</v>
+        <v>2.4742162</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -13335,412 +12210,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
-        <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>103.9867223_2.6001419_10450_0270_71</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>103.9867223</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.6001419</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>104.1206634_2.1618576_10450_0270_72</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>104.1206634</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.1618576</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>103.9507189_2.1566261_10450_0270_73</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>103.9507189</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.1566261</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>cuts/103.9507189,2.1566261_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>104.7858289_3.1040498_10450_0270_74</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>104.7858289</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.1040498</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>104.8285499_3.0770391_10450_0270_75</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>104.8285499</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.0770391</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>cuts/104.8285499,3.0770391_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>104.6455414_2.3924080_10450_0270_76</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>104.6455414</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.392408</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>104.6177335_2.9010777_10450_0270_77</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>104.6177335</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.9010777</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_78</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>104.9874812</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.7583191</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_79</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>104.7870153</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2.4742162</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
         <is>
           <t>cuts/104.7870153,2.4742162_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -13757,7 +12245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1016"/>
+  <dimension ref="A1:R899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13875,490 +12363,427 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>104.7331017_3.1850610_10450_0270_10</t>
+          <t>104.5523031_2.5830823_10450_0270_10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>104.5526618_3.1630822_10450_0270_11</t>
+          <t>104.4763935_2.5459165_10450_0270_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>104.5763636_3.1599143_10450_0270_12</t>
+          <t>104.4291805_2.5429146_10450_0270_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>104.5523031_2.5830823_10450_0270_13</t>
+          <t>104.5482924_2.4185824_10450_0270_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>104.4763935_2.5459165_10450_0270_14</t>
+          <t>104.5124304_2.6905833_10450_0270_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429146_10450_0270_15</t>
+          <t>104.9138059_2.4936797_10450_0270_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>104.5482924_2.4185824_10450_0270_16</t>
+          <t>105.0049894_2.3278120_10450_0270_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>104.5124304_2.6905833_10450_0270_17</t>
+          <t>104.8276224_2.1137060_10450_0270_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>105.0090677_2.9053103_10450_0270_18</t>
+          <t>104.7359289_2.2720605_10450_0270_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>104.9138059_2.4936797_10450_0270_19</t>
+          <t>104.6527125_2.3787405_10450_0270_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>105.0049894_2.3278120_10450_0270_20</t>
+          <t>104.7526675_2.5572238_10450_0270_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>104.8276224_2.1137060_10450_0270_21</t>
+          <t>104.6680893_2.5989051_10450_0270_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>104.7359289_2.2720605_10450_0270_22</t>
+          <t>104.6649698_2.9700722_10450_0270_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>104.6527125_2.3787405_10450_0270_23</t>
+          <t>104.5897110_3.0805801_10450_0270_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>104.7526675_2.5572238_10450_0270_24</t>
+          <t>104.5374546_2.5830828_10450_0270_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>104.6680893_2.5989051_10450_0270_25</t>
+          <t>104.5523030_2.5830823_10450_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>104.7577490_2.9178894_10450_0270_26</t>
+          <t>104.6325467_2.5427428_10450_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>104.6649698_2.9700722_10450_0270_27</t>
+          <t>104.4291805_2.5429147_10450_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>104.5897110_3.0805801_10450_0270_28</t>
+          <t>104.5748140_2.3909144_10450_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>104.7505925_3.0120576_10450_0270_29</t>
+          <t>104.5933171_2.2244131_10450_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>104.5374546_2.5830828_10450_0270_30</t>
+          <t>104.4195314_2.1349141_10450_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_31</t>
+          <t>104.2831144_2.1103974_10450_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_32</t>
+          <t>104.3661560_2.2035760_10450_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_33</t>
+          <t>104.2541771_2.5352252_10450_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_34</t>
+          <t>104.2439976_2.5487231_10450_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_35</t>
+          <t>104.2925288_2.6467324_10450_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_36</t>
+          <t>104.2598251_2.6575597_10450_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_37</t>
+          <t>104.1995735_2.6041463_10450_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_38</t>
+          <t>104.4129518_2.7224469_10450_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_39</t>
+          <t>104.3504841_2.6990409_10450_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_40</t>
+          <t>104.4224552_2.8363809_10450_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_41</t>
+          <t>104.2462977_2.8789570_10450_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_42</t>
+          <t>104.3419900_3.0943398_10450_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_43</t>
+          <t>104.1355625_2.8653622_10450_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_44</t>
+          <t>104.0893561_2.4177808_10450_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_45</t>
+          <t>104.0849554_2.4085793_10450_0270_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_46</t>
+          <t>104.1313339_2.1728276_10450_0270_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_47</t>
+          <t>104.2174500_2.0671839_10450_0270_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_48</t>
+          <t>104.2294530_2.0855867_10450_0270_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>104.3660544_3.1262093_10450_0270_49</t>
+          <t>104.1060238_2.8713863_10450_0270_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_50</t>
+          <t>104.2463204_2.4506570_10450_0270_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_51</t>
+          <t>104.3425297_2.4074065_10450_0270_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_52</t>
+          <t>104.5339468_2.4300828_10450_0270_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_53</t>
+          <t>104.7057183_2.1477327_10450_0270_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_54</t>
+          <t>104.1012388_2.4006847_10450_0270_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_55</t>
+          <t>104.5115936_2.4249167_10450_0270_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_56</t>
+          <t>104.6106814_2.4279117_10450_0270_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_57</t>
+          <t>104.1662126_2.0932043_10450_0270_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_58</t>
+          <t>104.1877908_2.4892100_10450_0270_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_59</t>
+          <t>104.0308850_2.7283264_10450_0270_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_60</t>
+          <t>104.2366162_2.7373882_10450_0270_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_61</t>
+          <t>104.4990826_2.3614167_10450_0270_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_62</t>
+          <t>104.6071806_2.4532453_10450_0270_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_63</t>
+          <t>104.3720765_2.9994100_10450_0270_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_64</t>
+          <t>103.9867223_2.6001419_10450_0270_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_65</t>
+          <t>104.1206634_2.1618576_10450_0270_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_66</t>
+          <t>104.7858289_3.1040498_10450_0270_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_67</t>
+          <t>104.6455414_2.3924080_10450_0270_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_68</t>
+          <t>104.6177335_2.9010777_10450_0270_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_69</t>
+          <t>104.9874812_2.7583191_10450_0270_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_70</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>103.9867223_2.6001419_10450_0270_71</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>104.1206634_2.1618576_10450_0270_72</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>103.9507189_2.1566261_10450_0270_73</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>104.7858289_3.1040498_10450_0270_74</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>104.8285499_3.0770391_10450_0270_75</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>104.6455414_2.3924080_10450_0270_76</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>104.6177335_2.9010777_10450_0270_77</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_78</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_79</t>
+          <t>104.7870153_2.4742162_10450_0270_70</t>
         </is>
       </c>
     </row>

--- a/10450_0270.xlsx
+++ b/10450_0270.xlsx
@@ -8617,256 +8617,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId340"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>885</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="341" name="Image 341" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId341"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>885</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="342" name="Image 342" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId342"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>885</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="343" name="Image 343" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId343"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>885</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="344" name="Image 344" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId344"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>885</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="345" name="Image 345" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId345"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>898</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="346" name="Image 346" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId346"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>898</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="347" name="Image 347" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId347"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>898</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="348" name="Image 348" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId348"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>898</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="349" name="Image 349" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId349"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>898</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="350" name="Image 350" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId350"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9169,7 +8919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10259,14 +10009,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_25</t>
+          <t>104.6325467_2.5427428_10450_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.552303</v>
+        <v>104.6325467</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5830823</v>
+        <v>2.5427428</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -10275,41 +10025,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/104.5523030,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_26</t>
+          <t>104.5748140_2.3909144_10450_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.6325467</v>
+        <v>104.574814</v>
       </c>
       <c r="C27" t="n">
-        <v>2.5427428</v>
+        <v>2.3909144</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -10318,41 +10068,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_27</t>
+          <t>104.5933171_2.2244131_10450_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.4291805</v>
+        <v>104.5933171</v>
       </c>
       <c r="C28" t="n">
-        <v>2.5429147</v>
+        <v>2.2244131</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -10361,41 +10111,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/104.4291805,2.5429147_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_28</t>
+          <t>104.4195314_2.1349141_10450_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.574814</v>
+        <v>104.4195314</v>
       </c>
       <c r="C29" t="n">
-        <v>2.3909144</v>
+        <v>2.1349141</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -10404,41 +10154,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_29</t>
+          <t>104.2831144_2.1103974_10450_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.5933171</v>
+        <v>104.2831144</v>
       </c>
       <c r="C30" t="n">
-        <v>2.2244131</v>
+        <v>2.1103974</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -10447,41 +10197,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_30</t>
+          <t>104.3661560_2.2035760_10450_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.4195314</v>
+        <v>104.366156</v>
       </c>
       <c r="C31" t="n">
-        <v>2.1349141</v>
+        <v>2.203576</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -10490,41 +10240,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_31</t>
+          <t>104.2541771_2.5352252_10450_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.2831144</v>
+        <v>104.2541771</v>
       </c>
       <c r="C32" t="n">
-        <v>2.1103974</v>
+        <v>2.5352252</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -10533,41 +10283,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_32</t>
+          <t>104.2439976_2.5487231_10450_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.366156</v>
+        <v>104.2439976</v>
       </c>
       <c r="C33" t="n">
-        <v>2.203576</v>
+        <v>2.5487231</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -10576,41 +10326,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_33</t>
+          <t>104.2925288_2.6467324_10450_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.2541771</v>
+        <v>104.2925288</v>
       </c>
       <c r="C34" t="n">
-        <v>2.5352252</v>
+        <v>2.6467324</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -10619,41 +10369,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_34</t>
+          <t>104.2598251_2.6575597_10450_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.2439976</v>
+        <v>104.2598251</v>
       </c>
       <c r="C35" t="n">
-        <v>2.5487231</v>
+        <v>2.6575597</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -10662,41 +10412,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_35</t>
+          <t>104.1995735_2.6041463_10450_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.2925288</v>
+        <v>104.1995735</v>
       </c>
       <c r="C36" t="n">
-        <v>2.6467324</v>
+        <v>2.6041463</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -10705,41 +10455,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_36</t>
+          <t>104.4129518_2.7224469_10450_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.2598251</v>
+        <v>104.4129518</v>
       </c>
       <c r="C37" t="n">
-        <v>2.6575597</v>
+        <v>2.7224469</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -10748,41 +10498,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_37</t>
+          <t>104.3504841_2.6990409_10450_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.1995735</v>
+        <v>104.3504841</v>
       </c>
       <c r="C38" t="n">
-        <v>2.6041463</v>
+        <v>2.6990409</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -10791,41 +10541,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_38</t>
+          <t>104.4224552_2.8363809_10450_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.4129518</v>
+        <v>104.4224552</v>
       </c>
       <c r="C39" t="n">
-        <v>2.7224469</v>
+        <v>2.8363809</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -10834,41 +10584,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_39</t>
+          <t>104.2462977_2.8789570_10450_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.3504841</v>
+        <v>104.2462977</v>
       </c>
       <c r="C40" t="n">
-        <v>2.6990409</v>
+        <v>2.878957</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -10877,41 +10627,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_40</t>
+          <t>104.3419900_3.0943398_10450_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.4224552</v>
+        <v>104.34199</v>
       </c>
       <c r="C41" t="n">
-        <v>2.8363809</v>
+        <v>3.0943398</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -10920,41 +10670,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_41</t>
+          <t>104.1355625_2.8653622_10450_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.2462977</v>
+        <v>104.1355625</v>
       </c>
       <c r="C42" t="n">
-        <v>2.878957</v>
+        <v>2.8653622</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -10963,41 +10713,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_42</t>
+          <t>104.0893561_2.4177808_10450_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.34199</v>
+        <v>104.0893561</v>
       </c>
       <c r="C43" t="n">
-        <v>3.0943398</v>
+        <v>2.4177808</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -11006,41 +10756,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_43</t>
+          <t>104.0849554_2.4085793_10450_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.1355625</v>
+        <v>104.0849554</v>
       </c>
       <c r="C44" t="n">
-        <v>2.8653622</v>
+        <v>2.4085793</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -11049,41 +10799,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_44</t>
+          <t>104.1313339_2.1728276_10450_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.0893561</v>
+        <v>104.1313339</v>
       </c>
       <c r="C45" t="n">
-        <v>2.4177808</v>
+        <v>2.1728276</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -11092,41 +10842,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_45</t>
+          <t>104.2174500_2.0671839_10450_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.0849554</v>
+        <v>104.21745</v>
       </c>
       <c r="C46" t="n">
-        <v>2.4085793</v>
+        <v>2.0671839</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -11135,41 +10885,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_46</t>
+          <t>104.2294530_2.0855867_10450_0270_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.1313339</v>
+        <v>104.229453</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1728276</v>
+        <v>2.0855867</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -11178,41 +10928,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_47</t>
+          <t>104.1060238_2.8713863_10450_0270_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104.21745</v>
+        <v>104.1060238</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0671839</v>
+        <v>2.8713863</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -11221,41 +10971,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_48</t>
+          <t>104.2463204_2.4506570_10450_0270_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>104.229453</v>
+        <v>104.2463204</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0855867</v>
+        <v>2.450657</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -11264,41 +11014,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_49</t>
+          <t>104.3425297_2.4074065_10450_0270_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>104.1060238</v>
+        <v>104.3425297</v>
       </c>
       <c r="C50" t="n">
-        <v>2.8713863</v>
+        <v>2.4074065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -11307,41 +11057,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_50</t>
+          <t>104.5339468_2.4300828_10450_0270_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>104.2463204</v>
+        <v>104.5339468</v>
       </c>
       <c r="C51" t="n">
-        <v>2.450657</v>
+        <v>2.4300828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -11350,41 +11100,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_51</t>
+          <t>104.7057183_2.1477327_10450_0270_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>104.3425297</v>
+        <v>104.7057183</v>
       </c>
       <c r="C52" t="n">
-        <v>2.4074065</v>
+        <v>2.1477327</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -11393,41 +11143,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_52</t>
+          <t>104.1012388_2.4006847_10450_0270_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>104.5339468</v>
+        <v>104.1012388</v>
       </c>
       <c r="C53" t="n">
-        <v>2.4300828</v>
+        <v>2.4006847</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -11436,41 +11186,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_53</t>
+          <t>104.5115936_2.4249167_10450_0270_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.7057183</v>
+        <v>104.5115936</v>
       </c>
       <c r="C54" t="n">
-        <v>2.1477327</v>
+        <v>2.4249167</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -11479,41 +11229,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_54</t>
+          <t>104.6106814_2.4279117_10450_0270_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.1012388</v>
+        <v>104.6106814</v>
       </c>
       <c r="C55" t="n">
-        <v>2.4006847</v>
+        <v>2.4279117</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -11522,41 +11272,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_55</t>
+          <t>104.1662126_2.0932043_10450_0270_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>104.5115936</v>
+        <v>104.1662126</v>
       </c>
       <c r="C56" t="n">
-        <v>2.4249167</v>
+        <v>2.0932043</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -11565,41 +11315,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_56</t>
+          <t>104.1877908_2.4892100_10450_0270_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>104.6106814</v>
+        <v>104.1877908</v>
       </c>
       <c r="C57" t="n">
-        <v>2.4279117</v>
+        <v>2.48921</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -11608,41 +11358,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_57</t>
+          <t>104.0308850_2.7283264_10450_0270_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>104.1662126</v>
+        <v>104.030885</v>
       </c>
       <c r="C58" t="n">
-        <v>2.0932043</v>
+        <v>2.7283264</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -11651,41 +11401,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_58</t>
+          <t>104.2366162_2.7373882_10450_0270_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>104.1877908</v>
+        <v>104.2366162</v>
       </c>
       <c r="C59" t="n">
-        <v>2.48921</v>
+        <v>2.7373882</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -11694,41 +11444,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_59</t>
+          <t>104.4990826_2.3614167_10450_0270_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>104.030885</v>
+        <v>104.4990826</v>
       </c>
       <c r="C60" t="n">
-        <v>2.7283264</v>
+        <v>2.3614167</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -11737,41 +11487,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_60</t>
+          <t>104.6071806_2.4532453_10450_0270_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>104.2366162</v>
+        <v>104.6071806</v>
       </c>
       <c r="C61" t="n">
-        <v>2.7373882</v>
+        <v>2.4532453</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -11780,41 +11530,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_61</t>
+          <t>104.3720765_2.9994100_10450_0270_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.4990826</v>
+        <v>104.3720765</v>
       </c>
       <c r="C62" t="n">
-        <v>2.3614167</v>
+        <v>2.99941</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -11823,41 +11573,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_62</t>
+          <t>103.9867223_2.6001419_10450_0270_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.6071806</v>
+        <v>103.9867223</v>
       </c>
       <c r="C63" t="n">
-        <v>2.4532453</v>
+        <v>2.6001419</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -11866,41 +11616,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_63</t>
+          <t>104.1206634_2.1618576_10450_0270_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>104.3720765</v>
+        <v>104.1206634</v>
       </c>
       <c r="C64" t="n">
-        <v>2.99941</v>
+        <v>2.1618576</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -11909,41 +11659,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>103.9867223_2.6001419_10450_0270_64</t>
+          <t>104.7858289_3.1040498_10450_0270_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>103.9867223</v>
+        <v>104.7858289</v>
       </c>
       <c r="C65" t="n">
-        <v>2.6001419</v>
+        <v>3.1040498</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -11952,41 +11702,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>104.1206634_2.1618576_10450_0270_65</t>
+          <t>104.6455414_2.3924080_10450_0270_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>104.1206634</v>
+        <v>104.6455414</v>
       </c>
       <c r="C66" t="n">
-        <v>2.1618576</v>
+        <v>2.392408</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -11995,41 +11745,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>104.7858289_3.1040498_10450_0270_66</t>
+          <t>104.6177335_2.9010777_10450_0270_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>104.7858289</v>
+        <v>104.6177335</v>
       </c>
       <c r="C67" t="n">
-        <v>3.1040498</v>
+        <v>2.9010777</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -12038,41 +11788,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>104.6455414_2.3924080_10450_0270_67</t>
+          <t>104.9874812_2.7583191_10450_0270_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>104.6455414</v>
+        <v>104.9874812</v>
       </c>
       <c r="C68" t="n">
-        <v>2.392408</v>
+        <v>2.7583191</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -12081,41 +11831,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>104.6177335_2.9010777_10450_0270_68</t>
+          <t>104.7870153_2.4742162_10450_0270_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>104.6177335</v>
+        <v>104.7870153</v>
       </c>
       <c r="C69" t="n">
-        <v>2.9010777</v>
+        <v>2.4742162</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -12124,111 +11874,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_RGB-composite.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
-        <is>
-          <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_69</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>104.9874812</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.7583191</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_70</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>104.7870153</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.4742162</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>cuts/104.7870153,2.4742162_10450_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
         <is>
           <t>cuts/104.7870153,2.4742162_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -12245,7 +11909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R899"/>
+  <dimension ref="A1:R873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12468,322 +12132,308 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>104.5523030_2.5830823_10450_0270_25</t>
+          <t>104.6325467_2.5427428_10450_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>104.6325467_2.5427428_10450_0270_26</t>
+          <t>104.5748140_2.3909144_10450_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>104.4291805_2.5429147_10450_0270_27</t>
+          <t>104.5933171_2.2244131_10450_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>104.5748140_2.3909144_10450_0270_28</t>
+          <t>104.4195314_2.1349141_10450_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>104.5933171_2.2244131_10450_0270_29</t>
+          <t>104.2831144_2.1103974_10450_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>104.4195314_2.1349141_10450_0270_30</t>
+          <t>104.3661560_2.2035760_10450_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>104.2831144_2.1103974_10450_0270_31</t>
+          <t>104.2541771_2.5352252_10450_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>104.3661560_2.2035760_10450_0270_32</t>
+          <t>104.2439976_2.5487231_10450_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>104.2541771_2.5352252_10450_0270_33</t>
+          <t>104.2925288_2.6467324_10450_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>104.2439976_2.5487231_10450_0270_34</t>
+          <t>104.2598251_2.6575597_10450_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>104.2925288_2.6467324_10450_0270_35</t>
+          <t>104.1995735_2.6041463_10450_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>104.2598251_2.6575597_10450_0270_36</t>
+          <t>104.4129518_2.7224469_10450_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>104.1995735_2.6041463_10450_0270_37</t>
+          <t>104.3504841_2.6990409_10450_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>104.4129518_2.7224469_10450_0270_38</t>
+          <t>104.4224552_2.8363809_10450_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>104.3504841_2.6990409_10450_0270_39</t>
+          <t>104.2462977_2.8789570_10450_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>104.4224552_2.8363809_10450_0270_40</t>
+          <t>104.3419900_3.0943398_10450_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>104.2462977_2.8789570_10450_0270_41</t>
+          <t>104.1355625_2.8653622_10450_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>104.3419900_3.0943398_10450_0270_42</t>
+          <t>104.0893561_2.4177808_10450_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>104.1355625_2.8653622_10450_0270_43</t>
+          <t>104.0849554_2.4085793_10450_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>104.0893561_2.4177808_10450_0270_44</t>
+          <t>104.1313339_2.1728276_10450_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>104.0849554_2.4085793_10450_0270_45</t>
+          <t>104.2174500_2.0671839_10450_0270_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>104.1313339_2.1728276_10450_0270_46</t>
+          <t>104.2294530_2.0855867_10450_0270_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>104.2174500_2.0671839_10450_0270_47</t>
+          <t>104.1060238_2.8713863_10450_0270_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>104.2294530_2.0855867_10450_0270_48</t>
+          <t>104.2463204_2.4506570_10450_0270_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>104.1060238_2.8713863_10450_0270_49</t>
+          <t>104.3425297_2.4074065_10450_0270_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>104.2463204_2.4506570_10450_0270_50</t>
+          <t>104.5339468_2.4300828_10450_0270_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>104.3425297_2.4074065_10450_0270_51</t>
+          <t>104.7057183_2.1477327_10450_0270_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>104.5339468_2.4300828_10450_0270_52</t>
+          <t>104.1012388_2.4006847_10450_0270_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>104.7057183_2.1477327_10450_0270_53</t>
+          <t>104.5115936_2.4249167_10450_0270_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>104.1012388_2.4006847_10450_0270_54</t>
+          <t>104.6106814_2.4279117_10450_0270_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>104.5115936_2.4249167_10450_0270_55</t>
+          <t>104.1662126_2.0932043_10450_0270_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>104.6106814_2.4279117_10450_0270_56</t>
+          <t>104.1877908_2.4892100_10450_0270_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>104.1662126_2.0932043_10450_0270_57</t>
+          <t>104.0308850_2.7283264_10450_0270_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>104.1877908_2.4892100_10450_0270_58</t>
+          <t>104.2366162_2.7373882_10450_0270_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>104.0308850_2.7283264_10450_0270_59</t>
+          <t>104.4990826_2.3614167_10450_0270_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>104.2366162_2.7373882_10450_0270_60</t>
+          <t>104.6071806_2.4532453_10450_0270_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>104.4990826_2.3614167_10450_0270_61</t>
+          <t>104.3720765_2.9994100_10450_0270_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>104.6071806_2.4532453_10450_0270_62</t>
+          <t>103.9867223_2.6001419_10450_0270_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>104.3720765_2.9994100_10450_0270_63</t>
+          <t>104.1206634_2.1618576_10450_0270_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>103.9867223_2.6001419_10450_0270_64</t>
+          <t>104.7858289_3.1040498_10450_0270_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>104.1206634_2.1618576_10450_0270_65</t>
+          <t>104.6455414_2.3924080_10450_0270_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>104.7858289_3.1040498_10450_0270_66</t>
+          <t>104.6177335_2.9010777_10450_0270_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>104.6455414_2.3924080_10450_0270_67</t>
+          <t>104.9874812_2.7583191_10450_0270_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>104.6177335_2.9010777_10450_0270_68</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>104.9874812_2.7583191_10450_0270_69</t>
-        </is>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>104.7870153_2.4742162_10450_0270_70</t>
+          <t>104.7870153_2.4742162_10450_0270_68</t>
         </is>
       </c>
     </row>

--- a/10450_0270.xlsx
+++ b/10450_0270.xlsx
@@ -8919,7 +8919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8973,6 +8973,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9016,6 +9096,54 @@
           <t>cuts/104.6222320,2.8292439_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9059,6 +9187,54 @@
           <t>cuts/104.1658247,2.8978708_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9102,6 +9278,54 @@
           <t>cuts/104.3341369,2.1779055_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9145,6 +9369,54 @@
           <t>cuts/103.9965281,2.6911460_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9188,6 +9460,54 @@
           <t>cuts/104.8796409,2.6021909_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9231,6 +9551,54 @@
           <t>cuts/104.8264588,2.1278729_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9274,6 +9642,54 @@
           <t>cuts/104.8949842,2.0710193_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9317,6 +9733,54 @@
           <t>cuts/104.6527125,2.3787404_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9360,6 +9824,54 @@
           <t>cuts/104.7985703,2.6545468_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9403,6 +9915,54 @@
           <t>cuts/104.5523031,2.5830823_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9446,6 +10006,54 @@
           <t>cuts/104.4763935,2.5459165_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9489,6 +10097,54 @@
           <t>cuts/104.4291805,2.5429146_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9532,6 +10188,54 @@
           <t>cuts/104.5482924,2.4185824_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9575,6 +10279,54 @@
           <t>cuts/104.5124304,2.6905833_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9618,6 +10370,54 @@
           <t>cuts/104.9138059,2.4936797_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9661,6 +10461,54 @@
           <t>cuts/105.0049894,2.3278120_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9704,6 +10552,54 @@
           <t>cuts/104.8276224,2.1137060_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9747,6 +10643,54 @@
           <t>cuts/104.7359289,2.2720605_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9790,6 +10734,54 @@
           <t>cuts/104.6527125,2.3787405_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9833,6 +10825,54 @@
           <t>cuts/104.7526675,2.5572238_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9876,6 +10916,54 @@
           <t>cuts/104.6680893,2.5989051_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9919,6 +11007,54 @@
           <t>cuts/104.6649698,2.9700722_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9962,6 +11098,54 @@
           <t>cuts/104.5897110,3.0805801_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10005,6 +11189,54 @@
           <t>cuts/104.5374546,2.5830828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10048,6 +11280,54 @@
           <t>cuts/104.6325467,2.5427428_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10091,6 +11371,54 @@
           <t>cuts/104.5748140,2.3909144_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10134,6 +11462,54 @@
           <t>cuts/104.5933171,2.2244131_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10177,6 +11553,54 @@
           <t>cuts/104.4195314,2.1349141_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10220,6 +11644,54 @@
           <t>cuts/104.2831144,2.1103974_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10263,6 +11735,54 @@
           <t>cuts/104.3661560,2.2035760_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10306,6 +11826,54 @@
           <t>cuts/104.2541771,2.5352252_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10349,6 +11917,54 @@
           <t>cuts/104.2439976,2.5487231_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10392,6 +12008,54 @@
           <t>cuts/104.2925288,2.6467324_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10435,6 +12099,54 @@
           <t>cuts/104.2598251,2.6575597_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10478,6 +12190,54 @@
           <t>cuts/104.1995735,2.6041463_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10521,6 +12281,54 @@
           <t>cuts/104.4129518,2.7224469_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10564,6 +12372,54 @@
           <t>cuts/104.3504841,2.6990409_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10607,6 +12463,54 @@
           <t>cuts/104.4224552,2.8363809_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10650,6 +12554,54 @@
           <t>cuts/104.2462977,2.8789570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10693,6 +12645,54 @@
           <t>cuts/104.3419900,3.0943398_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10736,6 +12736,54 @@
           <t>cuts/104.1355625,2.8653622_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O42" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10779,6 +12827,54 @@
           <t>cuts/104.0893561,2.4177808_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10822,6 +12918,54 @@
           <t>cuts/104.0849554,2.4085793_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O44" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10865,6 +13009,54 @@
           <t>cuts/104.1313339,2.1728276_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O45" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10908,6 +13100,54 @@
           <t>cuts/104.2174500,2.0671839_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O46" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10951,6 +13191,54 @@
           <t>cuts/104.2294530,2.0855867_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10994,6 +13282,54 @@
           <t>cuts/104.1060238,2.8713863_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X48" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11037,6 +13373,54 @@
           <t>cuts/104.2463204,2.4506570_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11080,6 +13464,54 @@
           <t>cuts/104.3425297,2.4074065_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11123,6 +13555,54 @@
           <t>cuts/104.5339468,2.4300828_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11166,6 +13646,54 @@
           <t>cuts/104.7057183,2.1477327_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11209,6 +13737,54 @@
           <t>cuts/104.1012388,2.4006847_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11252,6 +13828,54 @@
           <t>cuts/104.5115936,2.4249167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11295,6 +13919,54 @@
           <t>cuts/104.6106814,2.4279117_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X55" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11338,6 +14010,54 @@
           <t>cuts/104.1662126,2.0932043_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X56" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11381,6 +14101,54 @@
           <t>cuts/104.1877908,2.4892100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M57" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11424,6 +14192,54 @@
           <t>cuts/104.0308850,2.7283264_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M58" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11467,6 +14283,54 @@
           <t>cuts/104.2366162,2.7373882_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11510,6 +14374,54 @@
           <t>cuts/104.4990826,2.3614167_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O60" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X60" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11553,6 +14465,54 @@
           <t>cuts/104.6071806,2.4532453_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O61" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X61" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11596,6 +14556,54 @@
           <t>cuts/104.3720765,2.9994100_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O62" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X62" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11639,6 +14647,54 @@
           <t>cuts/103.9867223,2.6001419_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M63" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11682,6 +14738,54 @@
           <t>cuts/104.1206634,2.1618576_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M64" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X64" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11725,6 +14829,54 @@
           <t>cuts/104.7858289,3.1040498_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M65" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11768,6 +14920,54 @@
           <t>cuts/104.6455414,2.3924080_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M66" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11811,6 +15011,54 @@
           <t>cuts/104.6177335,2.9010777_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M67" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O67" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11854,6 +15102,54 @@
           <t>cuts/104.9874812,2.7583191_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M68" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O68" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.325065</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11896,6 +15192,54 @@
         <is>
           <t>cuts/104.7870153,2.4742162_10450_0270_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J69" t="n">
+        <v>4.26296</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15.2952</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.84446</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7.19138</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>44.4875</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3.82826</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.464193</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.4347</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.335938</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.47048</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.574219</v>
+      </c>
+      <c r="X69" t="n">
+        <v>5.76364</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.325065</v>
       </c>
     </row>
   </sheetData>
